--- a/fuentes/contenidos/grado09/guion01/Escaleta_LE_09_01_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion01/Escaleta_LE_09_01_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="305">
   <si>
     <t>Asignatura</t>
   </si>
@@ -748,9 +748,6 @@
     <t>Recurso M5C-03</t>
   </si>
   <si>
-    <t>Recurso M101A-04</t>
-  </si>
-  <si>
     <t>Revisar las fichas DBA3</t>
   </si>
   <si>
@@ -869,13 +866,119 @@
   </si>
   <si>
     <t>Claves para la redacción de un comentario de texto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consolidación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para afianzar saberes sobre los autores y las obras de la literatura precolombina </t>
+  </si>
+  <si>
+    <t>Tres preguntas que tengan coherencia y se relacionen. Se puede indagar sobre los temas más empleados por los autores precolombinos y la forma como caracterizan personajes, su relación con la religión, las respuestas que buscan responder….</t>
+  </si>
+  <si>
+    <t>Recurso M</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Las oraciones simples y compuestas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: La literatura de la época precolombina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proponer actividades de análisis de párrafos para identificar oraciones simples y compuestas. Luego, proponerles construir o escribir párrafos usando los dos tipos de oraciones. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para afianzar la escritura de oraciones y párrafos </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Refuerza tu aprendizaje: las reglas ortográficas de los grafemas </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> j</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para reconocer la escritura correcta de palabras con g y j </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proponer párrafos con las grafías g y j. Luego pedirles que expliquen qué regla se utilizó en cada caso. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para desarrollar habilidades de lectura </t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje:  estrategias de lectura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proponer fragmentos cortos de comentario de texto y aplicar la estrategia de concluir, inferir algo a partir de ello. Proponer  preguntas puntuales que apunten a tales inferencias o conclusiones. </t>
+  </si>
+  <si>
+    <t>Recurso M101A-4</t>
+  </si>
+  <si>
+    <t>Recurso M101A-5</t>
+  </si>
+  <si>
+    <t>Recurso M101A-6</t>
+  </si>
+  <si>
+    <t>Recurso M101A-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El comentario de texto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banco de actividades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividades para repasar los contenidos del tema El comentario de texto </t>
+  </si>
+  <si>
+    <t>Debe incluirse 10 preguntas abiertas:3 sobre literatura; 2 sobre gramática, 2 de ortografía, 2 de Comprensión y 1 de producción.  Debe marcarse en el greco Gestor de actividades como actividad didáctica</t>
+  </si>
+  <si>
+    <t>Recurso M101AP</t>
+  </si>
+  <si>
+    <t>Recurso M101A-08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,6 +1025,14 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1260,7 +1371,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1337,6 +1448,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1357,9 +1504,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1651,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U91"/>
+  <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D32" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="R37" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1681,94 +1825,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="50" t="s">
+      <c r="N1" s="72"/>
+      <c r="O1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="70" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="54"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="74"/>
       <c r="M2" s="17" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
     </row>
     <row r="3" spans="1:21" ht="59" customHeight="1">
       <c r="A3" s="18" t="s">
@@ -1808,7 +1952,7 @@
       </c>
       <c r="N3" s="46"/>
       <c r="O3" s="46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P3" s="44" t="s">
         <v>19</v>
@@ -1867,7 +2011,7 @@
       </c>
       <c r="N4" s="46"/>
       <c r="O4" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P4" s="44" t="s">
         <v>19</v>
@@ -2024,7 +2168,7 @@
       <c r="G7" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="33">
         <v>5</v>
       </c>
       <c r="I7" s="36" t="s">
@@ -2044,7 +2188,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P7" s="44" t="s">
         <v>19</v>
@@ -2103,7 +2247,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P8" s="44" t="s">
         <v>19</v>
@@ -2162,7 +2306,7 @@
         <v>35</v>
       </c>
       <c r="O9" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P9" s="44" t="s">
         <v>19</v>
@@ -2196,8 +2340,8 @@
       <c r="D10" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="57" t="s">
-        <v>277</v>
+      <c r="E10" s="50" t="s">
+        <v>276</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>100</v>
@@ -2225,7 +2369,7 @@
         <v>44</v>
       </c>
       <c r="O10" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P10" s="44" t="s">
         <v>19</v>
@@ -2259,8 +2403,8 @@
       <c r="D11" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="57" t="s">
-        <v>277</v>
+      <c r="E11" s="50" t="s">
+        <v>276</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>100</v>
@@ -2268,7 +2412,7 @@
       <c r="G11" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="33">
         <v>9</v>
       </c>
       <c r="I11" s="36" t="s">
@@ -2288,7 +2432,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P11" s="44" t="s">
         <v>19</v>
@@ -2322,8 +2466,8 @@
       <c r="D12" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="57" t="s">
-        <v>277</v>
+      <c r="E12" s="50" t="s">
+        <v>276</v>
       </c>
       <c r="F12" s="29" t="s">
         <v>100</v>
@@ -2351,7 +2495,7 @@
       </c>
       <c r="N12" s="46"/>
       <c r="O12" s="45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P12" s="44" t="s">
         <v>19</v>
@@ -2385,8 +2529,8 @@
       <c r="D13" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="57" t="s">
-        <v>278</v>
+      <c r="E13" s="50" t="s">
+        <v>277</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>114</v>
@@ -2414,7 +2558,7 @@
       </c>
       <c r="N13" s="46"/>
       <c r="O13" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P13" s="44" t="s">
         <v>19</v>
@@ -2448,8 +2592,8 @@
       <c r="D14" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="57" t="s">
-        <v>278</v>
+      <c r="E14" s="50" t="s">
+        <v>277</v>
       </c>
       <c r="F14" s="29" t="s">
         <v>118</v>
@@ -2477,7 +2621,7 @@
         <v>37</v>
       </c>
       <c r="O14" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P14" s="44" t="s">
         <v>19</v>
@@ -2511,8 +2655,8 @@
       <c r="D15" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="57" t="s">
-        <v>278</v>
+      <c r="E15" s="50" t="s">
+        <v>277</v>
       </c>
       <c r="F15" s="29" t="s">
         <v>118</v>
@@ -2520,7 +2664,7 @@
       <c r="G15" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="33">
         <v>13</v>
       </c>
       <c r="I15" s="36" t="s">
@@ -2540,7 +2684,7 @@
       </c>
       <c r="N15" s="46"/>
       <c r="O15" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P15" s="44" t="s">
         <v>20</v>
@@ -2561,68 +2705,68 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:21" ht="56">
+      <c r="A16" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="35" t="s">
-        <v>129</v>
+      <c r="E16" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="39" t="s">
+        <v>286</v>
       </c>
       <c r="H16" s="36">
         <v>14</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="K16" s="42" t="s">
+      <c r="J16" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="K16" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="43" t="s">
+      <c r="L16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="46" t="s">
-        <v>74</v>
+      <c r="M16" s="61" t="s">
+        <v>62</v>
       </c>
       <c r="N16" s="46"/>
-      <c r="O16" s="45" t="s">
-        <v>253</v>
-      </c>
-      <c r="P16" s="44" t="s">
+      <c r="O16" s="62" t="s">
+        <v>283</v>
+      </c>
+      <c r="P16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="64">
         <v>6</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="R16" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="S16" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="U16" s="2" t="s">
+      <c r="S16" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="T16" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="U16" s="66" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="28">
+    <row r="17" spans="1:21">
       <c r="A17" s="21" t="s">
         <v>68</v>
       </c>
@@ -2632,51 +2776,55 @@
       <c r="C17" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="28"/>
+      <c r="D17" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>125</v>
+      </c>
       <c r="F17" s="29"/>
       <c r="G17" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H17" s="36">
         <v>15</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="K17" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="46"/>
+        <v>32</v>
+      </c>
+      <c r="M17" s="46" t="s">
+        <v>74</v>
+      </c>
       <c r="N17" s="46"/>
       <c r="O17" s="45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>131</v>
+      <c r="Q17" s="1">
+        <v>6</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="28">
@@ -2695,27 +2843,27 @@
       <c r="E18" s="28"/>
       <c r="F18" s="29"/>
       <c r="G18" s="35" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H18" s="36">
         <v>16</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K18" s="42" t="s">
         <v>70</v>
       </c>
       <c r="L18" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M18" s="46"/>
       <c r="N18" s="46"/>
       <c r="O18" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P18" s="44" t="s">
         <v>19</v>
@@ -2730,7 +2878,7 @@
         <v>133</v>
       </c>
       <c r="T18" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>135</v>
@@ -2752,27 +2900,27 @@
       <c r="E19" s="28"/>
       <c r="F19" s="29"/>
       <c r="G19" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="36">
+        <v>136</v>
+      </c>
+      <c r="H19" s="33">
         <v>17</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K19" s="42" t="s">
         <v>70</v>
       </c>
       <c r="L19" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M19" s="46"/>
       <c r="N19" s="46"/>
       <c r="O19" s="45" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P19" s="44" t="s">
         <v>19</v>
@@ -2787,7 +2935,7 @@
         <v>133</v>
       </c>
       <c r="T19" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>135</v>
@@ -2809,27 +2957,27 @@
       <c r="E20" s="28"/>
       <c r="F20" s="29"/>
       <c r="G20" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H20" s="36">
         <v>18</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="K20" s="42" t="s">
         <v>70</v>
       </c>
       <c r="L20" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M20" s="46"/>
       <c r="N20" s="46"/>
       <c r="O20" s="45" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P20" s="44" t="s">
         <v>19</v>
@@ -2841,13 +2989,13 @@
         <v>132</v>
       </c>
       <c r="S20" s="13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="28">
@@ -2866,7 +3014,7 @@
       <c r="E21" s="28"/>
       <c r="F21" s="29"/>
       <c r="G21" s="35" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H21" s="36">
         <v>19</v>
@@ -2875,7 +3023,7 @@
         <v>105</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="K21" s="42" t="s">
         <v>70</v>
@@ -2886,7 +3034,7 @@
       <c r="M21" s="46"/>
       <c r="N21" s="46"/>
       <c r="O21" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P21" s="44" t="s">
         <v>19</v>
@@ -2901,7 +3049,7 @@
         <v>141</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="U21" s="2" t="s">
         <v>143</v>
@@ -2923,27 +3071,27 @@
       <c r="E22" s="28"/>
       <c r="F22" s="29"/>
       <c r="G22" s="35" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="H22" s="36">
         <v>20</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K22" s="42" t="s">
         <v>70</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M22" s="46"/>
       <c r="N22" s="46"/>
       <c r="O22" s="45" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P22" s="44" t="s">
         <v>19</v>
@@ -2958,13 +3106,13 @@
         <v>141</v>
       </c>
       <c r="T22" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="70">
+    <row r="23" spans="1:21" ht="28">
       <c r="A23" s="21" t="s">
         <v>68</v>
       </c>
@@ -2977,112 +3125,112 @@
       <c r="D23" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>125</v>
-      </c>
+      <c r="E23" s="28"/>
       <c r="F23" s="29"/>
       <c r="G23" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" s="36">
+        <v>176</v>
+      </c>
+      <c r="H23" s="33">
         <v>21</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="K23" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L23" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" s="46" t="s">
-        <v>47</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M23" s="46"/>
       <c r="N23" s="46"/>
       <c r="O23" s="45" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P23" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="1">
-        <v>6</v>
+      <c r="Q23" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="R23" s="13" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="S23" s="13" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="T23" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="28">
-      <c r="A24" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="42">
+      <c r="A24" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="28"/>
+      <c r="D24" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>281</v>
+      </c>
       <c r="F24" s="29"/>
-      <c r="G24" s="35" t="s">
-        <v>152</v>
+      <c r="G24" s="39" t="s">
+        <v>285</v>
       </c>
       <c r="H24" s="36">
         <v>22</v>
       </c>
-      <c r="I24" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="K24" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="46"/>
+      <c r="I24" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="K24" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="61" t="s">
+        <v>62</v>
+      </c>
       <c r="N24" s="46"/>
-      <c r="O24" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="P24" s="44" t="s">
+      <c r="O24" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="P24" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="S24" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="T24" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="Q24" s="64">
+        <v>6</v>
+      </c>
+      <c r="R24" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="S24" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="T24" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="U24" s="66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="70">
       <c r="A25" s="21" t="s">
         <v>68</v>
       </c>
@@ -3092,15 +3240,15 @@
       <c r="C25" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>151</v>
+      <c r="D25" s="47" t="s">
+        <v>128</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="35" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="H25" s="36">
         <v>23</v>
@@ -3109,39 +3257,41 @@
         <v>105</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K25" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L25" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="46"/>
+      <c r="M25" s="46" t="s">
+        <v>47</v>
+      </c>
       <c r="N25" s="46"/>
       <c r="O25" s="45" t="s">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="P25" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="1" t="s">
-        <v>131</v>
+      <c r="Q25" s="1">
+        <v>6</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="S25" s="13" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="84">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="28">
       <c r="A26" s="21" t="s">
         <v>68</v>
       </c>
@@ -3154,52 +3304,48 @@
       <c r="D26" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="E26" s="28" t="s">
-        <v>158</v>
-      </c>
+      <c r="E26" s="28"/>
       <c r="F26" s="29"/>
       <c r="G26" s="35" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H26" s="36">
         <v>24</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K26" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L26" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" s="46" t="s">
-        <v>83</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M26" s="46"/>
       <c r="N26" s="46"/>
       <c r="O26" s="45" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P26" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="1">
-        <v>6</v>
+      <c r="Q26" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="R26" s="13" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="S26" s="13" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="T26" s="13" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -3216,20 +3362,20 @@
         <v>151</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="H27" s="36">
+        <v>177</v>
+      </c>
+      <c r="H27" s="33">
         <v>25</v>
       </c>
       <c r="I27" s="36" t="s">
         <v>105</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="K27" s="42" t="s">
         <v>70</v>
@@ -3240,7 +3386,7 @@
       <c r="M27" s="46"/>
       <c r="N27" s="46"/>
       <c r="O27" s="45" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="P27" s="44" t="s">
         <v>19</v>
@@ -3255,13 +3401,13 @@
         <v>154</v>
       </c>
       <c r="T27" s="13" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" ht="84">
       <c r="A28" s="21" t="s">
         <v>68</v>
       </c>
@@ -3275,11 +3421,11 @@
         <v>151</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="35" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H28" s="36">
         <v>26</v>
@@ -3288,36 +3434,38 @@
         <v>105</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K28" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L28" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="46"/>
+      <c r="M28" s="46" t="s">
+        <v>83</v>
+      </c>
       <c r="N28" s="46"/>
       <c r="O28" s="45" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="P28" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>131</v>
+        <v>19</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>6</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="S28" s="13" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="T28" s="13" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -3331,118 +3479,116 @@
         <v>91</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>279</v>
+        <v>151</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="35" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="H29" s="36">
         <v>27</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="K29" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L29" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M29" s="46"/>
-      <c r="N29" s="46" t="s">
-        <v>37</v>
-      </c>
+      <c r="N29" s="46"/>
       <c r="O29" s="45" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="P29" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="1">
-        <v>6</v>
+      <c r="Q29" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="70">
-      <c r="A30" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="28">
+      <c r="A30" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>185</v>
+      <c r="D30" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>125</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="39" t="s">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="H30" s="36">
         <v>28</v>
       </c>
-      <c r="I30" s="36" t="s">
+      <c r="I30" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="J30" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="K30" s="42" t="s">
+      <c r="J30" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="K30" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L30" s="43" t="s">
+      <c r="L30" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="46" t="s">
-        <v>64</v>
+      <c r="M30" s="61" t="s">
+        <v>62</v>
       </c>
       <c r="N30" s="46"/>
-      <c r="O30" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="P30" s="44" t="s">
+      <c r="O30" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="P30" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="64">
         <v>6</v>
       </c>
-      <c r="R30" s="13" t="s">
+      <c r="R30" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="S30" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="T30" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="U30" s="2" t="s">
+      <c r="S30" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="T30" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="U30" s="66" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="42">
+    <row r="31" spans="1:21">
       <c r="A31" s="21" t="s">
         <v>68</v>
       </c>
@@ -3453,57 +3599,55 @@
         <v>91</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>279</v>
+        <v>151</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="H31" s="36">
+        <v>166</v>
+      </c>
+      <c r="H31" s="33">
         <v>29</v>
       </c>
       <c r="I31" s="36" t="s">
         <v>105</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="K31" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L31" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="46" t="s">
-        <v>83</v>
-      </c>
+      <c r="M31" s="46"/>
       <c r="N31" s="46"/>
       <c r="O31" s="45" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="P31" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="1">
-        <v>6</v>
+      <c r="Q31" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="28">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="21" t="s">
         <v>68</v>
       </c>
@@ -3514,36 +3658,36 @@
         <v>91</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="35" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="H32" s="36">
         <v>30</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="K32" s="42" t="s">
         <v>69</v>
       </c>
       <c r="L32" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M32" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="N32" s="46"/>
+        <v>31</v>
+      </c>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46" t="s">
+        <v>37</v>
+      </c>
       <c r="O32" s="45" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P32" s="44" t="s">
         <v>19</v>
@@ -3552,19 +3696,19 @@
         <v>6</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="T32" s="13" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="70">
       <c r="A33" s="21" t="s">
         <v>68</v>
       </c>
@@ -3575,55 +3719,57 @@
         <v>91</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="F33" s="29"/>
-      <c r="G33" s="35" t="s">
-        <v>197</v>
+      <c r="G33" s="69" t="s">
+        <v>186</v>
       </c>
       <c r="H33" s="36">
+        <v>31</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="K33" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="I33" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="K33" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="L33" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="M33" s="46"/>
+      <c r="M33" s="46" t="s">
+        <v>64</v>
+      </c>
       <c r="N33" s="46"/>
       <c r="O33" s="45" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P33" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="1" t="s">
-        <v>208</v>
+      <c r="Q33" s="1">
+        <v>6</v>
       </c>
       <c r="R33" s="13" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="S33" s="13" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="T33" s="13" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="42">
       <c r="A34" s="21" t="s">
         <v>68</v>
       </c>
@@ -3634,118 +3780,118 @@
         <v>91</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="35" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="H34" s="36">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I34" s="36" t="s">
         <v>105</v>
       </c>
       <c r="J34" s="37" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="K34" s="42" t="s">
         <v>69</v>
       </c>
       <c r="L34" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46" t="s">
-        <v>46</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M34" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="N34" s="46"/>
       <c r="O34" s="45" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="P34" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q34" s="1">
         <v>6</v>
       </c>
       <c r="R34" s="13" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="S34" s="13" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="T34" s="13" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="56">
-      <c r="A35" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="42">
+      <c r="A35" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>125</v>
+      <c r="D35" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="E35" s="68" t="s">
+        <v>281</v>
       </c>
       <c r="F35" s="29"/>
-      <c r="G35" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="H35" s="36">
+      <c r="G35" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="H35" s="33">
         <v>33</v>
       </c>
-      <c r="I35" s="36" t="s">
+      <c r="I35" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="J35" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="K35" s="42" t="s">
+      <c r="J35" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="K35" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L35" s="43" t="s">
+      <c r="L35" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M35" s="46" t="s">
+      <c r="M35" s="61" t="s">
         <v>62</v>
       </c>
       <c r="N35" s="46"/>
-      <c r="O35" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="P35" s="44" t="s">
+      <c r="O35" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="P35" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35" s="64">
         <v>6</v>
       </c>
-      <c r="R35" s="13" t="s">
+      <c r="R35" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="S35" s="13" t="s">
+      <c r="S35" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="T35" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="U35" s="2" t="s">
+      <c r="T35" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="U35" s="66" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" ht="28">
       <c r="A36" s="21" t="s">
         <v>68</v>
       </c>
@@ -3756,12 +3902,14 @@
         <v>91</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E36" s="28"/>
+        <v>278</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>125</v>
+      </c>
       <c r="F36" s="29"/>
       <c r="G36" s="35" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H36" s="36">
         <v>34</v>
@@ -3769,8 +3917,8 @@
       <c r="I36" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="J36" s="34" t="s">
-        <v>203</v>
+      <c r="J36" s="37" t="s">
+        <v>194</v>
       </c>
       <c r="K36" s="42" t="s">
         <v>69</v>
@@ -3779,11 +3927,11 @@
         <v>32</v>
       </c>
       <c r="M36" s="46" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="N36" s="46"/>
       <c r="O36" s="45" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P36" s="44" t="s">
         <v>19</v>
@@ -3798,7 +3946,7 @@
         <v>108</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>110</v>
@@ -3815,53 +3963,55 @@
         <v>91</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E37" s="28"/>
+        <v>279</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>196</v>
+      </c>
       <c r="F37" s="29"/>
       <c r="G37" s="35" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="H37" s="36">
         <v>35</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J37" s="37" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K37" s="42" t="s">
         <v>70</v>
       </c>
       <c r="L37" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M37" s="46"/>
       <c r="N37" s="46"/>
       <c r="O37" s="45" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P37" s="44" t="s">
         <v>19</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="R37" s="13" t="s">
         <v>132</v>
       </c>
       <c r="S37" s="13" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="T37" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="84">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="28">
       <c r="A38" s="21" t="s">
         <v>68</v>
       </c>
@@ -3872,12 +4022,14 @@
         <v>91</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E38" s="28"/>
+        <v>279</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>196</v>
+      </c>
       <c r="F38" s="29"/>
       <c r="G38" s="35" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H38" s="36">
         <v>36</v>
@@ -3886,20 +4038,20 @@
         <v>105</v>
       </c>
       <c r="J38" s="37" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K38" s="42" t="s">
         <v>69</v>
       </c>
       <c r="L38" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="N38" s="46"/>
+        <v>31</v>
+      </c>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46" t="s">
+        <v>46</v>
+      </c>
       <c r="O38" s="45" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="P38" s="44" t="s">
         <v>19</v>
@@ -3908,19 +4060,19 @@
         <v>6</v>
       </c>
       <c r="R38" s="13" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="S38" s="13" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="T38" s="13" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="42">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="56">
       <c r="A39" s="21" t="s">
         <v>68</v>
       </c>
@@ -3931,21 +4083,23 @@
         <v>91</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E39" s="28"/>
+        <v>279</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>125</v>
+      </c>
       <c r="F39" s="29"/>
       <c r="G39" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="H39" s="36">
+        <v>198</v>
+      </c>
+      <c r="H39" s="33">
         <v>37</v>
       </c>
       <c r="I39" s="36" t="s">
         <v>105</v>
       </c>
       <c r="J39" s="37" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="K39" s="42" t="s">
         <v>69</v>
@@ -3954,11 +4108,11 @@
         <v>32</v>
       </c>
       <c r="M39" s="46" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="N39" s="46"/>
       <c r="O39" s="45" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="P39" s="44" t="s">
         <v>19</v>
@@ -3972,8 +4126,8 @@
       <c r="S39" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="T39" s="13" t="s">
-        <v>216</v>
+      <c r="T39" s="65" t="s">
+        <v>298</v>
       </c>
       <c r="U39" s="2" t="s">
         <v>110</v>
@@ -3990,12 +4144,12 @@
         <v>91</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="29"/>
       <c r="G40" s="35" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="H40" s="36">
         <v>38</v>
@@ -4003,26 +4157,40 @@
       <c r="I40" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="J40" s="37" t="s">
-        <v>272</v>
+      <c r="J40" s="34" t="s">
+        <v>203</v>
       </c>
       <c r="K40" s="42" t="s">
         <v>69</v>
       </c>
       <c r="L40" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="M40" s="46"/>
+        <v>32</v>
+      </c>
+      <c r="M40" s="46" t="s">
+        <v>53</v>
+      </c>
       <c r="N40" s="46"/>
-      <c r="O40" s="45"/>
+      <c r="O40" s="45" t="s">
+        <v>265</v>
+      </c>
       <c r="P40" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="2"/>
+      <c r="Q40" s="1">
+        <v>6</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="S40" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="T40" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="21" t="s">
@@ -4035,12 +4203,12 @@
         <v>91</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="29"/>
       <c r="G41" s="35" t="s">
-        <v>273</v>
+        <v>139</v>
       </c>
       <c r="H41" s="36">
         <v>39</v>
@@ -4049,103 +4217,195 @@
         <v>105</v>
       </c>
       <c r="J41" s="37" t="s">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="K41" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L41" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="M41" s="46" t="s">
-        <v>23</v>
-      </c>
+      <c r="M41" s="46"/>
       <c r="N41" s="46"/>
       <c r="O41" s="45" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="P41" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="1">
-        <v>6</v>
+      <c r="Q41" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="R41" s="13" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="S41" s="13" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="T41" s="13" t="s">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" s="5" customFormat="1">
-      <c r="A42" s="21"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="84">
+      <c r="A42" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>201</v>
+      </c>
       <c r="E42" s="28"/>
       <c r="F42" s="29"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="46"/>
+      <c r="G42" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="H42" s="36">
+        <v>40</v>
+      </c>
+      <c r="I42" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="K42" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="L42" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="N42" s="46"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="2"/>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="24"/>
+      <c r="O42" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="P42" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>6</v>
+      </c>
+      <c r="R42" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="S42" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="T42" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="42">
+      <c r="A43" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>201</v>
+      </c>
       <c r="E43" s="28"/>
       <c r="F43" s="29"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="46"/>
+      <c r="G43" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="H43" s="33">
+        <v>41</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J43" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="K43" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N43" s="46"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="2"/>
+      <c r="O43" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="P43" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>6</v>
+      </c>
+      <c r="R43" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="S43" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="24"/>
+      <c r="A44" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>269</v>
+      </c>
       <c r="E44" s="28"/>
       <c r="F44" s="29"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="43"/>
+      <c r="G44" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="H44" s="36">
+        <v>42</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J44" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="K44" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="L44" s="43" t="s">
+        <v>33</v>
+      </c>
       <c r="M44" s="46"/>
       <c r="N44" s="46"/>
       <c r="O44" s="45"/>
-      <c r="P44" s="44"/>
+      <c r="P44" s="44" t="s">
+        <v>19</v>
+      </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
@@ -4153,58 +4413,128 @@
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="21"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="24"/>
+      <c r="A45" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>269</v>
+      </c>
       <c r="E45" s="28"/>
       <c r="F45" s="29"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="46"/>
+      <c r="G45" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="H45" s="36">
+        <v>43</v>
+      </c>
+      <c r="I45" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="K45" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="L45" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N45" s="46"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="2"/>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="2"/>
+      <c r="O45" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="P45" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>6</v>
+      </c>
+      <c r="R45" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="S45" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="T45" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" s="5" customFormat="1" ht="42">
+      <c r="A46" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="E46" s="68"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="36">
+        <v>44</v>
+      </c>
+      <c r="I46" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="J46" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="K46" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="L46" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="N46" s="61"/>
+      <c r="O46" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="P46" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="64">
+        <v>6</v>
+      </c>
+      <c r="R46" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="S46" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="T46" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="U46" s="66" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="23"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="31"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
       <c r="G47" s="35"/>
       <c r="H47" s="36"/>
       <c r="I47" s="36"/>
@@ -4225,9 +4555,9 @@
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="23"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="31"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
       <c r="G48" s="35"/>
       <c r="H48" s="36"/>
       <c r="I48" s="36"/>
@@ -4248,9 +4578,9 @@
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="23"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="31"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29"/>
       <c r="G49" s="35"/>
       <c r="H49" s="36"/>
       <c r="I49" s="36"/>
@@ -5232,6 +5562,98 @@
       <c r="S91" s="13"/>
       <c r="T91" s="13"/>
       <c r="U91" s="2"/>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="A92" s="21"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="45"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="13"/>
+      <c r="U92" s="2"/>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93" s="21"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="43"/>
+      <c r="M93" s="46"/>
+      <c r="N93" s="46"/>
+      <c r="O93" s="45"/>
+      <c r="P93" s="44"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="13"/>
+      <c r="U93" s="2"/>
+    </row>
+    <row r="94" spans="1:21">
+      <c r="A94" s="21"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="46"/>
+      <c r="N94" s="46"/>
+      <c r="O94" s="45"/>
+      <c r="P94" s="44"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+      <c r="U94" s="2"/>
+    </row>
+    <row r="95" spans="1:21">
+      <c r="A95" s="21"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="43"/>
+      <c r="M95" s="46"/>
+      <c r="N95" s="46"/>
+      <c r="O95" s="45"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="13"/>
+      <c r="U95" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -5265,37 +5687,37 @@
           <x14:formula1>
             <xm:f>DATOS!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A91</xm:sqref>
+          <xm:sqref>A3:A95</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K91</xm:sqref>
+          <xm:sqref>K3:K95</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$F$2:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L91</xm:sqref>
+          <xm:sqref>L3:L95</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P91</xm:sqref>
+          <xm:sqref>P3:P95</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$C$2:$C$39</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M91</xm:sqref>
+          <xm:sqref>M3:M95</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$2:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N91</xm:sqref>
+          <xm:sqref>N3:N95</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fuentes/contenidos/grado09/guion01/Escaleta_LE_09_01_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion01/Escaleta_LE_09_01_CO.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csepulveda\Desktop\GITHUB2015\Lenguaje\fuentes\contenidos\grado09\guion01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,11 +17,11 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1787,7 +1792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1797,34 +1802,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R37" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
-    <col min="4" max="4" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.5" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="7"/>
-    <col min="10" max="10" width="92.33203125" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.42578125" customWidth="1"/>
+    <col min="8" max="9" width="10.85546875" style="7"/>
+    <col min="10" max="10" width="92.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="9" customWidth="1"/>
     <col min="13" max="13" width="14" style="9" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
     <col min="15" max="15" width="60" style="10" customWidth="1"/>
-    <col min="16" max="16" width="21.1640625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="68.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
@@ -1887,7 +1892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71"/>
       <c r="B2" s="71"/>
       <c r="C2" s="71"/>
@@ -1914,7 +1919,7 @@
       <c r="T2" s="71"/>
       <c r="U2" s="71"/>
     </row>
-    <row r="3" spans="1:21" ht="59" customHeight="1">
+    <row r="3" spans="1:21" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>68</v>
       </c>
@@ -1973,7 +1978,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="76" customHeight="1">
+    <row r="4" spans="1:21" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>68</v>
       </c>
@@ -2032,7 +2037,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="84">
+    <row r="5" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>68</v>
       </c>
@@ -2091,7 +2096,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="42">
+    <row r="6" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>68</v>
       </c>
@@ -2150,7 +2155,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="42">
+    <row r="7" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>68</v>
       </c>
@@ -2209,7 +2214,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="70">
+    <row r="8" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>68</v>
       </c>
@@ -2268,7 +2273,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="28">
+    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>68</v>
       </c>
@@ -2327,7 +2332,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="28">
+    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>68</v>
       </c>
@@ -2390,7 +2395,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="28">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>68</v>
       </c>
@@ -2453,7 +2458,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="32" customHeight="1">
+    <row r="12" spans="1:21" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>68</v>
       </c>
@@ -2516,7 +2521,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="27" customHeight="1">
+    <row r="13" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>68</v>
       </c>
@@ -2579,7 +2584,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="28">
+    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>68</v>
       </c>
@@ -2642,7 +2647,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="28">
+    <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>68</v>
       </c>
@@ -2705,7 +2710,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="56">
+    <row r="16" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>68</v>
       </c>
@@ -2766,7 +2771,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>68</v>
       </c>
@@ -2827,7 +2832,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="28">
+    <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>68</v>
       </c>
@@ -2884,7 +2889,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="28">
+    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>68</v>
       </c>
@@ -2941,7 +2946,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="28">
+    <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>68</v>
       </c>
@@ -2998,7 +3003,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="28">
+    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>68</v>
       </c>
@@ -3055,7 +3060,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="28">
+    <row r="22" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>68</v>
       </c>
@@ -3112,7 +3117,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="28">
+    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>68</v>
       </c>
@@ -3169,7 +3174,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="42">
+    <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
         <v>68</v>
       </c>
@@ -3230,7 +3235,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="70">
+    <row r="25" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>68</v>
       </c>
@@ -3291,7 +3296,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="28">
+    <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>68</v>
       </c>
@@ -3348,7 +3353,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>68</v>
       </c>
@@ -3407,7 +3412,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="84">
+    <row r="28" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>68</v>
       </c>
@@ -3468,7 +3473,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>68</v>
       </c>
@@ -3527,7 +3532,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="28">
+    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
         <v>68</v>
       </c>
@@ -3588,7 +3593,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>68</v>
       </c>
@@ -3647,7 +3652,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>68</v>
       </c>
@@ -3708,7 +3713,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="70">
+    <row r="33" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>68</v>
       </c>
@@ -3769,7 +3774,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="42">
+    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>68</v>
       </c>
@@ -3830,7 +3835,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="42">
+    <row r="35" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
         <v>68</v>
       </c>
@@ -3891,7 +3896,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="28">
+    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>68</v>
       </c>
@@ -3952,7 +3957,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>68</v>
       </c>
@@ -4011,7 +4016,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="28">
+    <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>68</v>
       </c>
@@ -4072,7 +4077,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="56">
+    <row r="39" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>68</v>
       </c>
@@ -4133,7 +4138,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>68</v>
       </c>
@@ -4192,7 +4197,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>68</v>
       </c>
@@ -4249,7 +4254,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="84">
+    <row r="42" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>68</v>
       </c>
@@ -4308,7 +4313,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="42">
+    <row r="43" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>68</v>
       </c>
@@ -4367,7 +4372,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>68</v>
       </c>
@@ -4412,7 +4417,7 @@
       <c r="T44" s="13"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>68</v>
       </c>
@@ -4471,7 +4476,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="5" customFormat="1" ht="42">
+    <row r="46" spans="1:21" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="51" t="s">
         <v>68</v>
       </c>
@@ -4528,7 +4533,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="23"/>
@@ -4551,7 +4556,7 @@
       <c r="T47" s="13"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="23"/>
@@ -4574,7 +4579,7 @@
       <c r="T48" s="13"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="23"/>
@@ -4597,7 +4602,7 @@
       <c r="T49" s="13"/>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="23"/>
@@ -4620,7 +4625,7 @@
       <c r="T50" s="13"/>
       <c r="U50" s="2"/>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
       <c r="C51" s="23"/>
@@ -4643,7 +4648,7 @@
       <c r="T51" s="13"/>
       <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="23"/>
@@ -4666,7 +4671,7 @@
       <c r="T52" s="13"/>
       <c r="U52" s="2"/>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="23"/>
@@ -4689,7 +4694,7 @@
       <c r="T53" s="13"/>
       <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="23"/>
@@ -4712,7 +4717,7 @@
       <c r="T54" s="13"/>
       <c r="U54" s="2"/>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="23"/>
@@ -4735,7 +4740,7 @@
       <c r="T55" s="13"/>
       <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="23"/>
@@ -4758,7 +4763,7 @@
       <c r="T56" s="13"/>
       <c r="U56" s="2"/>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="23"/>
@@ -4781,7 +4786,7 @@
       <c r="T57" s="13"/>
       <c r="U57" s="2"/>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="23"/>
@@ -4804,7 +4809,7 @@
       <c r="T58" s="13"/>
       <c r="U58" s="2"/>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="23"/>
@@ -4827,7 +4832,7 @@
       <c r="T59" s="13"/>
       <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="23"/>
@@ -4850,7 +4855,7 @@
       <c r="T60" s="13"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="23"/>
@@ -4873,7 +4878,7 @@
       <c r="T61" s="13"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="23"/>
@@ -4896,7 +4901,7 @@
       <c r="T62" s="13"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="23"/>
@@ -4919,7 +4924,7 @@
       <c r="T63" s="13"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="23"/>
@@ -4942,7 +4947,7 @@
       <c r="T64" s="13"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="23"/>
@@ -4965,7 +4970,7 @@
       <c r="T65" s="13"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="23"/>
@@ -4988,7 +4993,7 @@
       <c r="T66" s="13"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="23"/>
@@ -5011,7 +5016,7 @@
       <c r="T67" s="13"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="23"/>
@@ -5034,7 +5039,7 @@
       <c r="T68" s="13"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="23"/>
@@ -5057,7 +5062,7 @@
       <c r="T69" s="13"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="23"/>
@@ -5080,7 +5085,7 @@
       <c r="T70" s="13"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="23"/>
@@ -5103,7 +5108,7 @@
       <c r="T71" s="13"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="23"/>
@@ -5126,7 +5131,7 @@
       <c r="T72" s="13"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="23"/>
@@ -5149,7 +5154,7 @@
       <c r="T73" s="13"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="23"/>
@@ -5172,7 +5177,7 @@
       <c r="T74" s="13"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="23"/>
@@ -5195,7 +5200,7 @@
       <c r="T75" s="13"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="23"/>
@@ -5218,7 +5223,7 @@
       <c r="T76" s="13"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="23"/>
@@ -5241,7 +5246,7 @@
       <c r="T77" s="13"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="23"/>
@@ -5264,7 +5269,7 @@
       <c r="T78" s="13"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="23"/>
@@ -5287,7 +5292,7 @@
       <c r="T79" s="13"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="23"/>
@@ -5310,7 +5315,7 @@
       <c r="T80" s="13"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="23"/>
@@ -5333,7 +5338,7 @@
       <c r="T81" s="13"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="23"/>
@@ -5356,7 +5361,7 @@
       <c r="T82" s="13"/>
       <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="23"/>
@@ -5379,7 +5384,7 @@
       <c r="T83" s="13"/>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="23"/>
@@ -5402,7 +5407,7 @@
       <c r="T84" s="13"/>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="23"/>
@@ -5425,7 +5430,7 @@
       <c r="T85" s="13"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="23"/>
@@ -5448,7 +5453,7 @@
       <c r="T86" s="13"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="23"/>
@@ -5471,7 +5476,7 @@
       <c r="T87" s="13"/>
       <c r="U87" s="2"/>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="23"/>
@@ -5494,7 +5499,7 @@
       <c r="T88" s="13"/>
       <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="23"/>
@@ -5517,7 +5522,7 @@
       <c r="T89" s="13"/>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="23"/>
@@ -5540,7 +5545,7 @@
       <c r="T90" s="13"/>
       <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="23"/>
@@ -5563,7 +5568,7 @@
       <c r="T91" s="13"/>
       <c r="U91" s="2"/>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="23"/>
@@ -5586,7 +5591,7 @@
       <c r="T92" s="13"/>
       <c r="U92" s="2"/>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="23"/>
@@ -5609,7 +5614,7 @@
       <c r="T93" s="13"/>
       <c r="U93" s="2"/>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="23"/>
@@ -5632,7 +5637,7 @@
       <c r="T94" s="13"/>
       <c r="U94" s="2"/>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="23"/>
@@ -5657,6 +5662,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -5672,11 +5682,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5736,16 +5741,16 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -5768,7 +5773,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15" t="s">
         <v>34</v>
@@ -5789,7 +5794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
         <v>35</v>
@@ -5810,7 +5815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
         <v>36</v>
@@ -5827,7 +5832,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>37</v>
@@ -5844,7 +5849,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
         <v>38</v>
@@ -5859,7 +5864,7 @@
       </c>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>39</v>
@@ -5872,7 +5877,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>40</v>
@@ -5885,7 +5890,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>41</v>
@@ -5898,7 +5903,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>42</v>
@@ -5911,7 +5916,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>43</v>
@@ -5926,7 +5931,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>44</v>
@@ -5941,7 +5946,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>45</v>
@@ -5956,7 +5961,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
         <v>46</v>
@@ -5971,7 +5976,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
@@ -5984,7 +5989,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
@@ -5997,7 +6002,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
@@ -6010,7 +6015,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
@@ -6023,7 +6028,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
@@ -6036,7 +6041,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
@@ -6049,7 +6054,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
@@ -6062,7 +6067,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15" t="s">
@@ -6075,7 +6080,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
@@ -6088,7 +6093,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15" t="s">
@@ -6101,7 +6106,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15" t="s">
@@ -6112,7 +6117,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15" t="s">
@@ -6123,7 +6128,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15" t="s">
@@ -6134,7 +6139,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15" t="s">
@@ -6145,7 +6150,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15" t="s">
@@ -6156,7 +6161,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15" t="s">
@@ -6167,7 +6172,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15" t="s">
@@ -6178,7 +6183,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15" t="s">
@@ -6189,7 +6194,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
@@ -6200,7 +6205,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15" t="s">
@@ -6211,7 +6216,7 @@
       <c r="F34" s="15"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15" t="s">
@@ -6222,7 +6227,7 @@
       <c r="F35" s="15"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15" t="s">
@@ -6233,7 +6238,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="15" t="s">
@@ -6244,7 +6249,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11" t="s">
@@ -6255,7 +6260,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11" t="s">
@@ -6266,7 +6271,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -6275,7 +6280,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -6284,7 +6289,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -6293,7 +6298,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -6302,7 +6307,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -6311,7 +6316,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -6320,7 +6325,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -6329,7 +6334,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -6338,7 +6343,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -6347,7 +6352,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -6356,7 +6361,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
